--- a/content/post/2022-05-28 Assignment 01/Professor_Proposes_Data.xlsx
+++ b/content/post/2022-05-28 Assignment 01/Professor_Proposes_Data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dearbharat/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NANA_tracy\Documents\GitHub\test\content\post\2022-05-28 Assignment 01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27AA7CC4-80E2-FC4D-8B2E-2974AF260520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24600" windowHeight="11930"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -235,10 +234,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -315,7 +314,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -327,7 +326,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -344,7 +343,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -360,7 +359,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -435,23 +434,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -487,23 +469,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -679,27 +644,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="256" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="256" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,7 +693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0.92</v>
       </c>
@@ -757,7 +722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>0.92</v>
       </c>
@@ -786,7 +751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>0.82</v>
       </c>
@@ -815,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>0.81</v>
       </c>
@@ -844,7 +809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>0.9</v>
       </c>
@@ -873,7 +838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>0.87</v>
       </c>
@@ -902,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>0.8</v>
       </c>
@@ -931,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>0.84</v>
       </c>
@@ -960,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>0.8</v>
       </c>
@@ -989,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>0.8</v>
       </c>
@@ -1018,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>0.85</v>
       </c>
@@ -1047,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>0.83</v>
       </c>
@@ -1076,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>0.82</v>
       </c>
@@ -1105,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>0.82</v>
       </c>
@@ -1134,7 +1099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>0.8</v>
       </c>
@@ -1163,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>0.91</v>
       </c>
@@ -1192,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>0.81</v>
       </c>
@@ -1221,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>0.9</v>
       </c>
@@ -1250,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>0.81</v>
       </c>
@@ -1279,7 +1244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>0.81</v>
       </c>
@@ -1308,7 +1273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>0.81</v>
       </c>
@@ -1337,7 +1302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>0.8</v>
       </c>
@@ -1366,7 +1331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>0.8</v>
       </c>
@@ -1395,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>0.8</v>
       </c>
@@ -1424,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>0.81</v>
       </c>
@@ -1453,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>0.91</v>
       </c>
@@ -1482,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>0.83</v>
       </c>
@@ -1511,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>0.83</v>
       </c>
@@ -1540,7 +1505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>0.88</v>
       </c>
@@ -1569,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>0.9</v>
       </c>
@@ -1598,7 +1563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>0.9</v>
       </c>
@@ -1627,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>0.9</v>
       </c>
@@ -1656,7 +1621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>0.91</v>
       </c>
@@ -1685,7 +1650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>0.81</v>
       </c>
@@ -1714,7 +1679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>0.81</v>
       </c>
@@ -1743,7 +1708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>0.85</v>
       </c>
@@ -1772,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>0.85</v>
       </c>
@@ -1801,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>0.81</v>
       </c>
@@ -1830,7 +1795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>0.81</v>
       </c>
@@ -1859,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>0.8</v>
       </c>
@@ -1888,7 +1853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>0.9</v>
       </c>
@@ -1917,7 +1882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>0.81</v>
       </c>
@@ -1946,7 +1911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>0.8</v>
       </c>
@@ -1975,7 +1940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>0.8</v>
       </c>
@@ -2004,7 +1969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>0.9</v>
       </c>
@@ -2033,7 +1998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>0.8</v>
       </c>
@@ -2062,7 +2027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>0.8</v>
       </c>
@@ -2091,7 +2056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>0.9</v>
       </c>
@@ -2120,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>0.9</v>
       </c>
@@ -2149,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>0.8</v>
       </c>
@@ -2178,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>0.82</v>
       </c>
@@ -2207,7 +2172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>0.81</v>
       </c>
@@ -2236,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>0.81</v>
       </c>
@@ -2265,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>0.8</v>
       </c>
@@ -2294,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>0.9</v>
       </c>
@@ -2323,7 +2288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>0.9</v>
       </c>
@@ -2352,7 +2317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>0.82</v>
       </c>
@@ -2381,7 +2346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>0.8</v>
       </c>
@@ -2410,7 +2375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>0.91</v>
       </c>
@@ -2439,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>0.92</v>
       </c>
@@ -2468,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>1</v>
       </c>
@@ -2497,7 +2462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>1.06</v>
       </c>
@@ -2526,7 +2491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>1</v>
       </c>
@@ -2555,7 +2520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>1.01</v>
       </c>
@@ -2584,7 +2549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>1.04</v>
       </c>
@@ -2613,7 +2578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>1.05</v>
       </c>
@@ -2642,7 +2607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>1.23</v>
       </c>
@@ -2671,7 +2636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>1.18</v>
       </c>
@@ -2700,7 +2665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>1.02</v>
       </c>
@@ -2729,7 +2694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>1</v>
       </c>
@@ -2758,7 +2723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>1</v>
       </c>
@@ -2787,7 +2752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>1.05</v>
       </c>
@@ -2816,7 +2781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>1</v>
       </c>
@@ -2845,7 +2810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>1.02</v>
       </c>
@@ -2874,7 +2839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>1</v>
       </c>
@@ -2903,7 +2868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>1</v>
       </c>
@@ -2932,7 +2897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>1.01</v>
       </c>
@@ -2961,7 +2926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>1.01</v>
       </c>
@@ -2990,7 +2955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>1.04</v>
       </c>
@@ -3019,7 +2984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>1</v>
       </c>
@@ -3048,7 +3013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>1</v>
       </c>
@@ -3077,7 +3042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>1.01</v>
       </c>
@@ -3106,7 +3071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>1.01</v>
       </c>
@@ -3135,7 +3100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -3164,7 +3129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>1.02</v>
       </c>
@@ -3193,7 +3158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>1</v>
       </c>
@@ -3222,7 +3187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>1</v>
       </c>
@@ -3251,7 +3216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>1</v>
       </c>
@@ -3280,7 +3245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>1.01</v>
       </c>
@@ -3309,7 +3274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>1.21</v>
       </c>
@@ -3338,7 +3303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>1</v>
       </c>
@@ -3367,7 +3332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>1.1599999999999999</v>
       </c>
@@ -3396,7 +3361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>1.17</v>
       </c>
@@ -3425,7 +3390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>1</v>
       </c>
@@ -3454,7 +3419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>1.04</v>
       </c>
@@ -3483,7 +3448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>1</v>
       </c>
@@ -3512,7 +3477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>1</v>
       </c>
@@ -3541,7 +3506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>1.01</v>
       </c>
@@ -3570,7 +3535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>1.0900000000000001</v>
       </c>
@@ -3599,7 +3564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>1.02</v>
       </c>
@@ -3628,7 +3593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>1.05</v>
       </c>
@@ -3657,7 +3622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -3686,7 +3651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>1</v>
       </c>
@@ -3715,7 +3680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>1.06</v>
       </c>
@@ -3744,7 +3709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>1.01</v>
       </c>
@@ -3773,7 +3738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>1.01</v>
       </c>
@@ -3802,7 +3767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>1</v>
       </c>
@@ -3831,7 +3796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>1.03</v>
       </c>
@@ -3860,7 +3825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>1.1499999999999999</v>
       </c>
@@ -3889,7 +3854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>1</v>
       </c>
@@ -3918,7 +3883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>1</v>
       </c>
@@ -3947,7 +3912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>1.01</v>
       </c>
@@ -3976,7 +3941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>1.07</v>
       </c>
@@ -4005,7 +3970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>1.04</v>
       </c>
@@ -4034,7 +3999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>1.25</v>
       </c>
@@ -4063,7 +4028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>1.05</v>
       </c>
@@ -4092,7 +4057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>1.0900000000000001</v>
       </c>
@@ -4121,7 +4086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>1.1399999999999999</v>
       </c>
@@ -4150,7 +4115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>1.1100000000000001</v>
       </c>
@@ -4179,7 +4144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>1.21</v>
       </c>
@@ -4208,7 +4173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>1</v>
       </c>
@@ -4237,7 +4202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>1.03</v>
       </c>
@@ -4266,7 +4231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>1.03</v>
       </c>
@@ -4295,7 +4260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>1.21</v>
       </c>
@@ -4324,7 +4289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>1.04</v>
       </c>
@@ -4353,7 +4318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>1.19</v>
       </c>
@@ -4382,7 +4347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>1.01</v>
       </c>
@@ -4411,7 +4376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>1.04</v>
       </c>
@@ -4440,7 +4405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>1.02</v>
       </c>
@@ -4469,7 +4434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>1.2</v>
       </c>
@@ -4498,7 +4463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>1.2</v>
       </c>
@@ -4527,7 +4492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>1.02</v>
       </c>
@@ -4556,7 +4521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>1.04</v>
       </c>
@@ -4585,7 +4550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>1.01</v>
       </c>
@@ -4614,7 +4579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>1</v>
       </c>
@@ -4643,7 +4608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>1.01</v>
       </c>
@@ -4672,7 +4637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>1</v>
       </c>
@@ -4701,7 +4666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>1.01</v>
       </c>
@@ -4730,7 +4695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>1.43</v>
       </c>
@@ -4759,7 +4724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>1</v>
       </c>
@@ -4788,7 +4753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>1</v>
       </c>
@@ -4817,7 +4782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>1</v>
       </c>
@@ -4846,7 +4811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>1.1100000000000001</v>
       </c>
@@ -4875,7 +4840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>1.01</v>
       </c>
@@ -4904,7 +4869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>1.01</v>
       </c>
@@ -4933,7 +4898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>1.01</v>
       </c>
@@ -4962,7 +4927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>1.1399999999999999</v>
       </c>
@@ -4991,7 +4956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>1.1200000000000001</v>
       </c>
@@ -5020,7 +4985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>1</v>
       </c>
@@ -5049,7 +5014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>1.01</v>
       </c>
@@ -5078,7 +5043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>1.02</v>
       </c>
@@ -5107,7 +5072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>1.1100000000000001</v>
       </c>
@@ -5136,7 +5101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -5165,7 +5130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>1.1299999999999999</v>
       </c>
@@ -5194,7 +5159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>1</v>
       </c>
@@ -5223,7 +5188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>1.26</v>
       </c>
@@ -5252,7 +5217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>1</v>
       </c>
@@ -5281,7 +5246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>1</v>
       </c>
@@ -5310,7 +5275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>1</v>
       </c>
@@ -5339,7 +5304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>1</v>
       </c>
@@ -5368,7 +5333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>1.02</v>
       </c>
@@ -5397,7 +5362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>1.01</v>
       </c>
@@ -5426,7 +5391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>1</v>
       </c>
@@ -5455,7 +5420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>1</v>
       </c>
@@ -5484,7 +5449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>1</v>
       </c>
@@ -5513,7 +5478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>1.02</v>
       </c>
@@ -5542,7 +5507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>1.23</v>
       </c>
@@ -5571,7 +5536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>1.01</v>
       </c>
@@ -5600,7 +5565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>1.07</v>
       </c>
@@ -5629,7 +5594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>1.01</v>
       </c>
@@ -5658,7 +5623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>1.01</v>
       </c>
@@ -5687,7 +5652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>1.01</v>
       </c>
@@ -5716,7 +5681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>1.01</v>
       </c>
@@ -5745,7 +5710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>1.01</v>
       </c>
@@ -5774,7 +5739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>1.01</v>
       </c>
@@ -5803,7 +5768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>1.01</v>
       </c>
@@ -5832,7 +5797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>1.1499999999999999</v>
       </c>
@@ -5861,7 +5826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>1.03</v>
       </c>
@@ -5890,7 +5855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>1.04</v>
       </c>
@@ -5919,7 +5884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>1.01</v>
       </c>
@@ -5948,7 +5913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>1.03</v>
       </c>
@@ -5977,7 +5942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>1</v>
       </c>
@@ -6006,7 +5971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>1.1499999999999999</v>
       </c>
@@ -6035,7 +6000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>1.01</v>
       </c>
@@ -6064,7 +6029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>1</v>
       </c>
@@ -6093,7 +6058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>1.1200000000000001</v>
       </c>
@@ -6122,7 +6087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>1.01</v>
       </c>
@@ -6151,7 +6116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>1.03</v>
       </c>
@@ -6180,7 +6145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>1.01</v>
       </c>
@@ -6209,7 +6174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>1.01</v>
       </c>
@@ -6238,7 +6203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>1.01</v>
       </c>
@@ -6267,7 +6232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>1.22</v>
       </c>
@@ -6296,7 +6261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>1.2</v>
       </c>
@@ -6325,7 +6290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -6354,7 +6319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>1.1599999999999999</v>
       </c>
@@ -6383,7 +6348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>1.02</v>
       </c>
@@ -6412,7 +6377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>1.23</v>
       </c>
@@ -6441,7 +6406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>1</v>
       </c>
@@ -6470,7 +6435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>1.01</v>
       </c>
@@ -6499,7 +6464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>1.19</v>
       </c>
@@ -6528,7 +6493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>1.02</v>
       </c>
@@ -6557,7 +6522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>1.33</v>
       </c>
@@ -6586,7 +6551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -6615,7 +6580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>1.58</v>
       </c>
@@ -6644,7 +6609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>1.04</v>
       </c>
@@ -6673,7 +6638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>1.01</v>
       </c>
@@ -6702,7 +6667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>1</v>
       </c>
@@ -6731,7 +6696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>1.02</v>
       </c>
@@ -6760,7 +6725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>1.02</v>
       </c>
@@ -6789,7 +6754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>1.01</v>
       </c>
@@ -6818,7 +6783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>1.01</v>
       </c>
@@ -6847,7 +6812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>1.01</v>
       </c>
@@ -6876,7 +6841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>1</v>
       </c>
@@ -6905,7 +6870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>1</v>
       </c>
@@ -6934,7 +6899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>1.01</v>
       </c>
@@ -6963,7 +6928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>1</v>
       </c>
@@ -6992,7 +6957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>1</v>
       </c>
@@ -7021,7 +6986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>1.1399999999999999</v>
       </c>
@@ -7050,7 +7015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>1</v>
       </c>
@@ -7079,7 +7044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>1.01</v>
       </c>
@@ -7108,7 +7073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>1.03</v>
       </c>
@@ -7137,7 +7102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>1.03</v>
       </c>
@@ -7166,7 +7131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>1.05</v>
       </c>
@@ -7195,7 +7160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>1.41</v>
       </c>
@@ -7224,7 +7189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>1.1599999999999999</v>
       </c>
@@ -7253,7 +7218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>1.01</v>
       </c>
@@ -7282,7 +7247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>1</v>
       </c>
@@ -7311,7 +7276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>1</v>
       </c>
@@ -7340,7 +7305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>1</v>
       </c>
@@ -7369,7 +7334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>1.06</v>
       </c>
@@ -7398,7 +7363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <v>1.01</v>
       </c>
@@ -7427,7 +7392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A233" s="2">
         <v>1.1200000000000001</v>
       </c>
@@ -7456,7 +7421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <v>1.07</v>
       </c>
@@ -7485,7 +7450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A235" s="2">
         <v>1.04</v>
       </c>
@@ -7514,7 +7479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <v>1</v>
       </c>
@@ -7543,7 +7508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -7572,7 +7537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>1.1599999999999999</v>
       </c>
@@ -7601,7 +7566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>1</v>
       </c>
@@ -7630,7 +7595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
         <v>1</v>
       </c>
@@ -7659,7 +7624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <v>1</v>
       </c>
@@ -7688,7 +7653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>0.09</v>
       </c>
@@ -7717,7 +7682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
         <v>0.09</v>
       </c>
@@ -7746,7 +7711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
         <v>0.09</v>
       </c>
@@ -7775,7 +7740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>0.09</v>
       </c>
@@ -7804,7 +7769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>0.09</v>
       </c>
@@ -7833,7 +7798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>0.1</v>
       </c>
@@ -7862,7 +7827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>0.1</v>
       </c>
@@ -7891,7 +7856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
         <v>0.1</v>
       </c>
@@ -7920,7 +7885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <v>0.1</v>
       </c>
@@ -7949,7 +7914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
         <v>0.1</v>
       </c>
@@ -7978,7 +7943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <v>0.1</v>
       </c>
@@ -8007,7 +7972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
         <v>0.1</v>
       </c>
@@ -8036,7 +8001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <v>0.1</v>
       </c>
@@ -8065,7 +8030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
         <v>0.1</v>
       </c>
@@ -8094,7 +8059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <v>0.1</v>
       </c>
@@ -8123,7 +8088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <v>0.1</v>
       </c>
@@ -8152,7 +8117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <v>0.1</v>
       </c>
@@ -8181,7 +8146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
         <v>0.1</v>
       </c>
@@ -8210,7 +8175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
         <v>0.11</v>
       </c>
@@ -8239,7 +8204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A261" s="2">
         <v>0.11</v>
       </c>
@@ -8268,7 +8233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <v>0.11</v>
       </c>
@@ -8297,7 +8262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
         <v>0.11</v>
       </c>
@@ -8326,7 +8291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
         <v>0.11</v>
       </c>
@@ -8355,7 +8320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <v>0.2</v>
       </c>
@@ -8384,7 +8349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
         <v>0.21</v>
       </c>
@@ -8413,7 +8378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
         <v>0.21</v>
       </c>
@@ -8442,7 +8407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A268" s="2">
         <v>0.21</v>
       </c>
@@ -8471,7 +8436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A269" s="2">
         <v>0.21</v>
       </c>
@@ -8500,7 +8465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
         <v>0.21</v>
       </c>
@@ -8529,7 +8494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
         <v>0.21</v>
       </c>
@@ -8558,7 +8523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <v>0.21</v>
       </c>
@@ -8587,7 +8552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A273" s="2">
         <v>0.22</v>
       </c>
@@ -8616,7 +8581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
         <v>0.22</v>
       </c>
@@ -8645,7 +8610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A275" s="2">
         <v>0.22</v>
       </c>
@@ -8674,7 +8639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A276" s="2">
         <v>0.22</v>
       </c>
@@ -8703,7 +8668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A277" s="2">
         <v>0.22</v>
       </c>
@@ -8732,7 +8697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A278" s="2">
         <v>0.23</v>
       </c>
@@ -8761,7 +8726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A279" s="2">
         <v>0.23</v>
       </c>
@@ -8790,7 +8755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
         <v>0.23</v>
       </c>
@@ -8819,7 +8784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A281" s="2">
         <v>0.23</v>
       </c>
@@ -8848,7 +8813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
         <v>0.23</v>
       </c>
@@ -8877,7 +8842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A283" s="2">
         <v>0.23</v>
       </c>
@@ -8906,7 +8871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A284" s="2">
         <v>0.23</v>
       </c>
@@ -8935,7 +8900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A285" s="2">
         <v>0.27</v>
       </c>
@@ -8964,7 +8929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A286" s="2">
         <v>0.28000000000000003</v>
       </c>
@@ -8993,7 +8958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A287" s="2">
         <v>0.28000000000000003</v>
       </c>
@@ -9022,7 +8987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A288" s="2">
         <v>0.3</v>
       </c>
@@ -9051,7 +9016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A289" s="2">
         <v>0.3</v>
       </c>
@@ -9080,7 +9045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A290" s="2">
         <v>0.3</v>
       </c>
@@ -9109,7 +9074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A291" s="2">
         <v>0.3</v>
       </c>
@@ -9138,7 +9103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A292" s="2">
         <v>0.3</v>
       </c>
@@ -9167,7 +9132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A293" s="2">
         <v>0.3</v>
       </c>
@@ -9196,7 +9161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A294" s="2">
         <v>0.3</v>
       </c>
@@ -9225,7 +9190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A295" s="2">
         <v>0.3</v>
       </c>
@@ -9254,7 +9219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A296" s="2">
         <v>0.3</v>
       </c>
@@ -9283,7 +9248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A297" s="2">
         <v>0.3</v>
       </c>
@@ -9312,7 +9277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A298" s="2">
         <v>0.3</v>
       </c>
@@ -9341,7 +9306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A299" s="2">
         <v>0.3</v>
       </c>
@@ -9370,7 +9335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A300" s="2">
         <v>0.3</v>
       </c>
@@ -9399,7 +9364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A301" s="2">
         <v>0.3</v>
       </c>
@@ -9428,7 +9393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A302" s="2">
         <v>0.3</v>
       </c>
@@ -9457,7 +9422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A303" s="2">
         <v>0.3</v>
       </c>
@@ -9486,7 +9451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A304" s="2">
         <v>0.3</v>
       </c>
@@ -9515,7 +9480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A305" s="2">
         <v>0.3</v>
       </c>
@@ -9544,7 +9509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A306" s="2">
         <v>0.3</v>
       </c>
@@ -9573,7 +9538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A307" s="2">
         <v>0.3</v>
       </c>
@@ -9602,7 +9567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A308" s="2">
         <v>0.3</v>
       </c>
@@ -9631,7 +9596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A309" s="2">
         <v>0.3</v>
       </c>
@@ -9660,7 +9625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A310" s="2">
         <v>0.3</v>
       </c>
@@ -9689,7 +9654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A311" s="2">
         <v>0.3</v>
       </c>
@@ -9718,7 +9683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A312" s="2">
         <v>0.3</v>
       </c>
@@ -9747,7 +9712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A313" s="2">
         <v>0.3</v>
       </c>
@@ -9776,7 +9741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A314" s="2">
         <v>0.3</v>
       </c>
@@ -9805,7 +9770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A315" s="2">
         <v>0.3</v>
       </c>
@@ -9834,7 +9799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A316" s="2">
         <v>0.3</v>
       </c>
@@ -9863,7 +9828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A317" s="2">
         <v>0.3</v>
       </c>
@@ -9892,7 +9857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A318" s="2">
         <v>0.3</v>
       </c>
@@ -9921,7 +9886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A319" s="2">
         <v>0.3</v>
       </c>
@@ -9950,7 +9915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A320" s="2">
         <v>0.3</v>
       </c>
@@ -9979,7 +9944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A321" s="2">
         <v>0.3</v>
       </c>
@@ -10008,7 +9973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A322" s="2">
         <v>0.3</v>
       </c>
@@ -10037,7 +10002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A323" s="2">
         <v>0.3</v>
       </c>
@@ -10066,7 +10031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A324" s="2">
         <v>0.3</v>
       </c>
@@ -10095,7 +10060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A325" s="2">
         <v>0.3</v>
       </c>
@@ -10124,7 +10089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A326" s="2">
         <v>0.3</v>
       </c>
@@ -10153,7 +10118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A327" s="2">
         <v>0.3</v>
       </c>
@@ -10182,7 +10147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A328" s="2">
         <v>0.3</v>
       </c>
@@ -10211,7 +10176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A329" s="2">
         <v>0.3</v>
       </c>
@@ -10240,7 +10205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A330" s="2">
         <v>0.3</v>
       </c>
@@ -10269,7 +10234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A331" s="2">
         <v>0.3</v>
       </c>
@@ -10298,7 +10263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A332" s="2">
         <v>0.3</v>
       </c>
@@ -10327,7 +10292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A333" s="2">
         <v>0.3</v>
       </c>
@@ -10356,7 +10321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A334" s="2">
         <v>0.3</v>
       </c>
@@ -10385,7 +10350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A335" s="2">
         <v>0.3</v>
       </c>
@@ -10414,7 +10379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A336" s="2">
         <v>0.3</v>
       </c>
@@ -10443,7 +10408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A337" s="2">
         <v>0.3</v>
       </c>
@@ -10472,7 +10437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A338" s="2">
         <v>0.3</v>
       </c>
@@ -10501,7 +10466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A339" s="2">
         <v>0.3</v>
       </c>
@@ -10530,7 +10495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A340" s="2">
         <v>0.3</v>
       </c>
@@ -10559,7 +10524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A341" s="2">
         <v>0.3</v>
       </c>
@@ -10588,7 +10553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A342" s="2">
         <v>0.3</v>
       </c>
@@ -10617,7 +10582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A343" s="2">
         <v>0.3</v>
       </c>
@@ -10646,7 +10611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A344" s="2">
         <v>0.3</v>
       </c>
@@ -10675,7 +10640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A345" s="2">
         <v>0.3</v>
       </c>
@@ -10704,7 +10669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A346" s="2">
         <v>0.3</v>
       </c>
@@ -10733,7 +10698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A347" s="2">
         <v>0.3</v>
       </c>
@@ -10762,7 +10727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A348" s="2">
         <v>0.3</v>
       </c>
@@ -10791,7 +10756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A349" s="2">
         <v>0.3</v>
       </c>
@@ -10820,7 +10785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A350" s="2">
         <v>0.3</v>
       </c>
@@ -10849,7 +10814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A351" s="2">
         <v>0.3</v>
       </c>
@@ -10878,7 +10843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A352" s="2">
         <v>0.3</v>
       </c>
@@ -10907,7 +10872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A353" s="2">
         <v>0.3</v>
       </c>
@@ -10936,7 +10901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A354" s="2">
         <v>0.3</v>
       </c>
@@ -10965,7 +10930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A355" s="2">
         <v>0.3</v>
       </c>
@@ -10994,7 +10959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A356" s="2">
         <v>0.3</v>
       </c>
@@ -11023,7 +10988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A357" s="2">
         <v>0.3</v>
       </c>
@@ -11052,7 +11017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A358" s="2">
         <v>0.3</v>
       </c>
@@ -11081,7 +11046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A359" s="2">
         <v>0.3</v>
       </c>
@@ -11110,7 +11075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A360" s="2">
         <v>0.3</v>
       </c>
@@ -11139,7 +11104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A361" s="2">
         <v>0.3</v>
       </c>
@@ -11168,7 +11133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A362" s="2">
         <v>0.3</v>
       </c>
@@ -11197,7 +11162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A363" s="2">
         <v>0.3</v>
       </c>
@@ -11226,7 +11191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A364" s="2">
         <v>0.3</v>
       </c>
@@ -11255,7 +11220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A365" s="2">
         <v>0.3</v>
       </c>
@@ -11284,7 +11249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A366" s="2">
         <v>0.3</v>
       </c>
@@ -11313,7 +11278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A367" s="2">
         <v>0.3</v>
       </c>
@@ -11342,7 +11307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A368" s="2">
         <v>0.3</v>
       </c>
@@ -11371,7 +11336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A369" s="2">
         <v>0.3</v>
       </c>
@@ -11400,7 +11365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A370" s="2">
         <v>0.3</v>
       </c>
@@ -11429,7 +11394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A371" s="2">
         <v>0.3</v>
       </c>
@@ -11458,7 +11423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A372" s="2">
         <v>0.3</v>
       </c>
@@ -11487,7 +11452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A373" s="2">
         <v>0.3</v>
       </c>
@@ -11516,7 +11481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A374" s="2">
         <v>0.3</v>
       </c>
@@ -11545,7 +11510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A375" s="2">
         <v>0.3</v>
       </c>
@@ -11574,7 +11539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A376" s="2">
         <v>0.3</v>
       </c>
@@ -11603,7 +11568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A377" s="2">
         <v>0.3</v>
       </c>
@@ -11632,7 +11597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A378" s="2">
         <v>0.3</v>
       </c>
@@ -11661,7 +11626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A379" s="2">
         <v>0.3</v>
       </c>
@@ -11690,7 +11655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A380" s="2">
         <v>0.3</v>
       </c>
@@ -11719,7 +11684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A381" s="2">
         <v>0.3</v>
       </c>
@@ -11748,7 +11713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A382" s="2">
         <v>0.3</v>
       </c>
@@ -11777,7 +11742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A383" s="2">
         <v>0.3</v>
       </c>
@@ -11806,7 +11771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A384" s="2">
         <v>0.3</v>
       </c>
@@ -11835,7 +11800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A385" s="2">
         <v>0.3</v>
       </c>
@@ -11864,7 +11829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A386" s="2">
         <v>0.3</v>
       </c>
@@ -11893,7 +11858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A387" s="2">
         <v>0.3</v>
       </c>
@@ -11922,7 +11887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A388" s="2">
         <v>0.3</v>
       </c>
@@ -11951,7 +11916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A389" s="2">
         <v>0.3</v>
       </c>
@@ -11980,7 +11945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A390" s="2">
         <v>0.3</v>
       </c>
@@ -12009,7 +11974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A391" s="2">
         <v>0.3</v>
       </c>
@@ -12038,7 +12003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A392" s="2">
         <v>0.3</v>
       </c>
@@ -12067,7 +12032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A393" s="2">
         <v>0.3</v>
       </c>
@@ -12096,7 +12061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A394" s="2">
         <v>0.3</v>
       </c>
@@ -12125,7 +12090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A395" s="2">
         <v>0.3</v>
       </c>
@@ -12154,7 +12119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A396" s="2">
         <v>0.3</v>
       </c>
@@ -12183,7 +12148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A397" s="2">
         <v>0.3</v>
       </c>
@@ -12212,7 +12177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A398" s="2">
         <v>0.3</v>
       </c>
@@ -12241,7 +12206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A399" s="2">
         <v>0.3</v>
       </c>
@@ -12270,7 +12235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A400" s="2">
         <v>0.3</v>
       </c>
@@ -12299,7 +12264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A401" s="2">
         <v>0.3</v>
       </c>
@@ -12328,7 +12293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A402" s="2">
         <v>0.3</v>
       </c>
@@ -12357,7 +12322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A403" s="2">
         <v>0.3</v>
       </c>
@@ -12386,7 +12351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A404" s="2">
         <v>0.3</v>
       </c>
@@ -12415,7 +12380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A405" s="2">
         <v>0.3</v>
       </c>
@@ -12444,7 +12409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A406" s="2">
         <v>0.3</v>
       </c>
@@ -12473,7 +12438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A407" s="2">
         <v>0.3</v>
       </c>
@@ -12502,7 +12467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A408" s="2">
         <v>0.3</v>
       </c>
@@ -12531,7 +12496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A409" s="2">
         <v>0.3</v>
       </c>
@@ -12560,7 +12525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A410" s="2">
         <v>0.3</v>
       </c>
@@ -12589,7 +12554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A411" s="2">
         <v>0.3</v>
       </c>
@@ -12618,7 +12583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A412" s="2">
         <v>0.3</v>
       </c>
@@ -12647,7 +12612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A413" s="2">
         <v>0.3</v>
       </c>
@@ -12676,7 +12641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A414" s="2">
         <v>0.3</v>
       </c>
@@ -12705,7 +12670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A415" s="2">
         <v>0.3</v>
       </c>
@@ -12734,7 +12699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A416" s="2">
         <v>0.3</v>
       </c>
@@ -12763,7 +12728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A417" s="2">
         <v>0.3</v>
       </c>
@@ -12792,7 +12757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A418" s="2">
         <v>0.3</v>
       </c>
@@ -12821,7 +12786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A419" s="2">
         <v>0.3</v>
       </c>
@@ -12850,7 +12815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A420" s="2">
         <v>0.3</v>
       </c>
@@ -12879,7 +12844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A421" s="2">
         <v>0.3</v>
       </c>
@@ -12908,7 +12873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A422" s="2">
         <v>0.3</v>
       </c>
@@ -12937,7 +12902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A423" s="2">
         <v>0.3</v>
       </c>
@@ -12966,7 +12931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="424" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A424" s="2">
         <v>0.3</v>
       </c>
@@ -12995,7 +12960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A425" s="2">
         <v>0.3</v>
       </c>
@@ -13024,7 +12989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A426" s="2">
         <v>0.3</v>
       </c>
@@ -13053,7 +13018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A427" s="2">
         <v>0.3</v>
       </c>
@@ -13082,7 +13047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A428" s="2">
         <v>0.3</v>
       </c>
@@ -13111,7 +13076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A429" s="2">
         <v>0.3</v>
       </c>
@@ -13140,7 +13105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="430" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A430" s="2">
         <v>0.3</v>
       </c>
@@ -13169,7 +13134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A431" s="2">
         <v>0.3</v>
       </c>
@@ -13198,7 +13163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A432" s="2">
         <v>0.3</v>
       </c>
@@ -13227,7 +13192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A433" s="2">
         <v>0.3</v>
       </c>
@@ -13256,7 +13221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A434" s="2">
         <v>0.3</v>
       </c>
@@ -13285,7 +13250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A435" s="2">
         <v>0.3</v>
       </c>
@@ -13314,7 +13279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="436" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A436" s="2">
         <v>0.3</v>
       </c>
@@ -13343,7 +13308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A437" s="2">
         <v>0.3</v>
       </c>
@@ -13372,7 +13337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A438" s="2">
         <v>0.3</v>
       </c>
@@ -13401,7 +13366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A439" s="2">
         <v>0.3</v>
       </c>
@@ -13430,7 +13395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="440" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A440" s="2">
         <v>0.3</v>
       </c>
@@ -13459,7 +13424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A441" s="2">
         <v>0.3</v>
       </c>
@@ -13488,7 +13453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A442" s="8"/>
     </row>
   </sheetData>
@@ -13499,36 +13464,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC17445-73DC-6D42-A5B9-948EB9FE9B04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.83203125" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.81640625" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.83203125" customWidth="1"/>
-    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.83203125" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.83203125" customWidth="1"/>
+    <col min="9" max="9" width="2.81640625" customWidth="1"/>
+    <col min="10" max="10" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.81640625" customWidth="1"/>
+    <col min="13" max="13" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.81640625" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13567,7 +13532,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="D2" s="11" t="s">
         <v>36</v>
@@ -13601,7 +13566,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="D3" s="11" t="s">
         <v>38</v>
@@ -13635,7 +13600,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
       <c r="D4" s="11" t="s">
         <v>40</v>
@@ -13669,7 +13634,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="D5" s="11" t="s">
         <v>42</v>
@@ -13703,7 +13668,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="D6" s="11" t="s">
         <v>44</v>
@@ -13737,7 +13702,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="D7" s="11" t="s">
         <v>46</v>
@@ -13753,7 +13718,7 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="E8" s="2"/>
       <c r="G8" s="11" t="s">
@@ -13764,7 +13729,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="E9" s="2"/>
       <c r="G9" s="11" t="s">
@@ -13775,7 +13740,7 @@
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E10" s="2"/>
       <c r="G10" s="11" t="s">
         <v>30</v>
@@ -13786,7 +13751,7 @@
       <c r="L10" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P2:P6">
+  <sortState ref="P2:P6">
     <sortCondition ref="P1:P6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
